--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93497</v>
+        <v>80619</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Miguel da Costa</t>
+          <t>Maitê Caldeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>11610.12</v>
+        <v>4886.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35468</v>
+        <v>23883</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manuela da Conceição</t>
+          <t>Isadora Peixoto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>6359.44</v>
+        <v>7965.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40616</v>
+        <v>63367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcelo Ferreira</t>
+          <t>Juan Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>7415.35</v>
+        <v>5959.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>66513</v>
+        <v>11872</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luiza Pires</t>
+          <t>Sr. Rafael Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,174 +584,174 @@
         <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>7150.5</v>
+        <v>8942.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23521</v>
+        <v>83354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alícia Nunes</t>
+          <t>Theo Sales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>9436.370000000001</v>
+        <v>7581.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77424</v>
+        <v>8677</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Larissa da Cunha</t>
+          <t>Sophie Vieira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>11430.08</v>
+        <v>7621.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10229</v>
+        <v>24361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olivia Aragão</t>
+          <t>Maria Alice Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>10045.38</v>
+        <v>4814.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41778</v>
+        <v>64007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emanuella da Conceição</t>
+          <t>Marcela Silva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G9" t="n">
-        <v>6089.36</v>
+        <v>5983.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62086</v>
+        <v>11001</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lara da Paz</t>
+          <t>Natália Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8832.74</v>
+        <v>8639.049999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6650</v>
+        <v>35131</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Felipe Duarte</t>
+          <t>Júlia Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -761,7 +761,7 @@
         <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>4360.01</v>
+        <v>11216.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,277 +476,277 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80619</v>
+        <v>74558</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maitê Caldeira</t>
+          <t>Sofia Santos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>4886.31</v>
+        <v>7396.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23883</v>
+        <v>93309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isadora Peixoto</t>
+          <t>Sr. Pedro Lucas Farias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>7965.12</v>
+        <v>5701.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>63367</v>
+        <v>17319</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juan Lima</t>
+          <t>Raul da Costa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>5959.78</v>
+        <v>9308.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11872</v>
+        <v>48743</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Rafael Farias</t>
+          <t>Antônio Oliveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>8942.24</v>
+        <v>2901.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>83354</v>
+        <v>74910</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Theo Sales</t>
+          <t>Dr. Cauã Fogaça</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>7581.01</v>
+        <v>4626.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8677</v>
+        <v>89881</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sophie Vieira</t>
+          <t>Maria Luiza Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>7621.79</v>
+        <v>9008.469999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24361</v>
+        <v>64245</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Alice Souza</t>
+          <t>Emanuella Porto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>4814.39</v>
+        <v>5300.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64007</v>
+        <v>55153</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela Silva</t>
+          <t>Vitor Gabriel Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>5983.45</v>
+        <v>2782.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11001</v>
+        <v>4464</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Natália Ferreira</t>
+          <t>Thomas da Cruz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45086</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>8639.049999999999</v>
+        <v>5372.44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35131</v>
+        <v>98713</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Júlia Moura</t>
+          <t>Melissa da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>11216.77</v>
+        <v>12062.8</v>
       </c>
     </row>
   </sheetData>
